--- a/results/accel-glmm-results/diel-period/np/glmm_main_effects_dp_np.xlsx
+++ b/results/accel-glmm-results/diel-period/np/glmm_main_effects_dp_np.xlsx
@@ -377,7 +377,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1589.90778299043</v>
+        <v>1589.90778299033</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>

--- a/results/accel-glmm-results/diel-period/np/glmm_main_effects_dp_np.xlsx
+++ b/results/accel-glmm-results/diel-period/np/glmm_main_effects_dp_np.xlsx
@@ -377,7 +377,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1589.90778299033</v>
+        <v>1589.90778126645</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>

--- a/results/accel-glmm-results/diel-period/np/glmm_main_effects_dp_np.xlsx
+++ b/results/accel-glmm-results/diel-period/np/glmm_main_effects_dp_np.xlsx
@@ -377,7 +377,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1589.90778126645</v>
+        <v>1589.90778064684</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
